--- a/data/trans_dic/P22$ss-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9879465433131575</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9909233856645678</v>
+        <v>0.9909233856645676</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9683429941142934</v>
@@ -685,7 +685,7 @@
         <v>0.9895978005405198</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9898556009460978</v>
+        <v>0.9898556009460976</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9736095038005769</v>
@@ -697,7 +697,7 @@
         <v>0.9888846299616803</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9902968962789961</v>
+        <v>0.9902968962789959</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9686551581194828</v>
+        <v>0.9708019161388736</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9738242621393574</v>
+        <v>0.9746979755015139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9794381783657294</v>
+        <v>0.9768480627234095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9807060806428509</v>
+        <v>0.9799627194034487</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.957126453850254</v>
+        <v>0.9571834718908883</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9761157261959668</v>
+        <v>0.9764463756422349</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9810548486380776</v>
+        <v>0.9813304985645432</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.982759550190313</v>
+        <v>0.9829386098818526</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9667740020016881</v>
+        <v>0.9662041453238766</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9784591208602905</v>
+        <v>0.9774750879734346</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.982124581023172</v>
+        <v>0.9826586132403169</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9850219612518355</v>
+        <v>0.9844357755163119</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9881067647151214</v>
+        <v>0.9886018729077827</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9910073567917841</v>
+        <v>0.9916497886774596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9946777289566912</v>
+        <v>0.9936012701346406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9967339531193046</v>
+        <v>0.9966570366794243</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9772223744452133</v>
+        <v>0.977482925201637</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9909634808708798</v>
+        <v>0.991088904034091</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9949708813374756</v>
+        <v>0.9951630656358605</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9944169480773719</v>
+        <v>0.9943086450213318</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9800285044731613</v>
+        <v>0.9791920163159679</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9895611267206609</v>
+        <v>0.9892208534811059</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9930798077820502</v>
+        <v>0.9932769154779736</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9938128257777805</v>
+        <v>0.9939893936787587</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9634641258976022</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9668765904630482</v>
+        <v>0.966876590463048</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9601101402825336</v>
@@ -833,7 +833,7 @@
         <v>0.9685492386445754</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9728770217732002</v>
+        <v>0.9728770217732005</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9600971604655217</v>
+        <v>0.9591212063965794</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9470399504688953</v>
+        <v>0.9478678452433901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.953928109660937</v>
+        <v>0.9548685460326213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9570093985593312</v>
+        <v>0.9558168651052307</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9484370315729629</v>
+        <v>0.9489657464488789</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9525599351165795</v>
+        <v>0.953970807376184</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9649787581026925</v>
+        <v>0.9655448684725064</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9732704922423643</v>
+        <v>0.9719789037853457</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9579000539303797</v>
+        <v>0.9584089955675281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9537552238373483</v>
+        <v>0.9531834360276633</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9622658798357568</v>
+        <v>0.9627690344341355</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9670193458033796</v>
+        <v>0.9666249610754305</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9780337370123301</v>
+        <v>0.9767923527818256</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9676901492817385</v>
+        <v>0.9677650475755788</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.971675464032053</v>
+        <v>0.9719638989166076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9749542568096403</v>
+        <v>0.9741664160181389</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9692830767250937</v>
+        <v>0.9701926230954373</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9723885549712584</v>
+        <v>0.9724179492501627</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.98024781420929</v>
+        <v>0.9803034131044066</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9840945907810519</v>
+        <v>0.9840454911519289</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9708787132051275</v>
+        <v>0.9716365708980058</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9678645979541983</v>
+        <v>0.9672664927320135</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9740464260108656</v>
+        <v>0.9740243434346985</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9775412540298474</v>
+        <v>0.9776773949291176</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8548790559302312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.922098485381479</v>
+        <v>0.9220984853814789</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8974631746420483</v>
@@ -957,7 +957,7 @@
         <v>0.8869270500547229</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9186710930642944</v>
+        <v>0.9186710930642945</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8861305664006472</v>
@@ -969,7 +969,7 @@
         <v>0.8709501370227346</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9203571961386426</v>
+        <v>0.9203571961386425</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8443546162317801</v>
+        <v>0.8436265346244129</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.822909065673791</v>
+        <v>0.820538802853135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8223553006575468</v>
+        <v>0.8186294099638568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8968799975205516</v>
+        <v>0.8970566655154928</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8680952876348553</v>
+        <v>0.8655150388855124</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8673269179364238</v>
+        <v>0.8658850972407814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8554909490204975</v>
+        <v>0.8572168557124303</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8964974398845637</v>
+        <v>0.8993975026316373</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8663338500109687</v>
+        <v>0.8654661273238289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.853861378082464</v>
+        <v>0.8575549724745065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8473773337445188</v>
+        <v>0.8485680814656946</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9049988511855995</v>
+        <v>0.9058788320935649</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.902424136655365</v>
+        <v>0.901616121186571</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8935446854218042</v>
+        <v>0.8936740258353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8857161363909021</v>
+        <v>0.8837303591851715</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9406528868677863</v>
+        <v>0.9415656014154822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.921797131983988</v>
+        <v>0.9234328937206318</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.927030881443896</v>
+        <v>0.9290140353791485</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9116938391949959</v>
+        <v>0.9107209342877299</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9345340215155127</v>
+        <v>0.9340934622707245</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9050598480323938</v>
+        <v>0.9045704539646366</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9026496151287924</v>
+        <v>0.9028871362515376</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8908173074221677</v>
+        <v>0.8910351137087189</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9328056627219372</v>
+        <v>0.9327702942243372</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9513553220592859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9617776531302165</v>
+        <v>0.9617776531302167</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9544765500765502</v>
@@ -1093,7 +1093,7 @@
         <v>0.964742279074334</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9695211865958677</v>
+        <v>0.9695211865958676</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9558231667227125</v>
@@ -1105,7 +1105,7 @@
         <v>0.9581978157205983</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9657593861505684</v>
+        <v>0.9657593861505683</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9493839119671962</v>
+        <v>0.9502506080233234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9439277985445366</v>
+        <v>0.943560701176462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9426079493990267</v>
+        <v>0.9433298144510941</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9536327876584644</v>
+        <v>0.9537814656211614</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9469089977823972</v>
+        <v>0.9470478825646441</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9560231466793351</v>
+        <v>0.9558018553073142</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9584470631953412</v>
+        <v>0.9575474430290694</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9640424738367591</v>
+        <v>0.9635382646845951</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9505020273363908</v>
+        <v>0.9504289178138369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9520768965768602</v>
+        <v>0.9518055945577082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9528694501607949</v>
+        <v>0.9527197356033097</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9611060116521232</v>
+        <v>0.9613629002072273</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9640961156346951</v>
+        <v>0.9646783332474834</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9605429900669398</v>
+        <v>0.9603159667837826</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9583578348179208</v>
+        <v>0.9590511709557022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9688259502552191</v>
+        <v>0.9680539236660738</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.961179340605036</v>
+        <v>0.9613449595276896</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9699017491173902</v>
+        <v>0.9697091318056514</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9710170706911572</v>
+        <v>0.971158697611477</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9741361330923164</v>
+        <v>0.9739902026213443</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9608768266558636</v>
+        <v>0.9611002982683936</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9628066841972348</v>
+        <v>0.9633175199896683</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9627749319542553</v>
+        <v>0.9631661611487553</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9696958399663141</v>
+        <v>0.9697697358505658</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>996630</v>
+        <v>998839</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>949131</v>
+        <v>949983</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>737692</v>
+        <v>735741</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>567367</v>
+        <v>566937</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1257918</v>
+        <v>1257993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1305845</v>
+        <v>1306287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>971943</v>
+        <v>972216</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>807155</v>
+        <v>807302</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2265292</v>
+        <v>2263956</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2262628</v>
+        <v>2260352</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1712718</v>
+        <v>1713650</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1378878</v>
+        <v>1378057</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>1016643</v>
+        <v>1017153</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>965878</v>
+        <v>966505</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>749170</v>
+        <v>748360</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>576639</v>
+        <v>576595</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1284329</v>
+        <v>1284672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1325708</v>
+        <v>1325876</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>985730</v>
+        <v>985920</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>816730</v>
+        <v>816641</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2296349</v>
+        <v>2294389</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>2288301</v>
+        <v>2287514</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1731823</v>
+        <v>1732167</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1391184</v>
+        <v>1391431</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1622417</v>
+        <v>1620768</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1859017</v>
+        <v>1860642</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1978069</v>
+        <v>1980019</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2134673</v>
+        <v>2132013</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1504689</v>
+        <v>1505528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1674413</v>
+        <v>1676893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1916875</v>
+        <v>1918000</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2112314</v>
+        <v>2109511</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3138406</v>
+        <v>3140074</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3548712</v>
+        <v>3546585</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3906845</v>
+        <v>3908888</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4255748</v>
+        <v>4254012</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1652727</v>
+        <v>1650630</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1899553</v>
+        <v>1899700</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2014870</v>
+        <v>2015468</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>2174700</v>
+        <v>2172942</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1537761</v>
+        <v>1539204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1709268</v>
+        <v>1709319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1947206</v>
+        <v>1947317</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2135806</v>
+        <v>2135700</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3180929</v>
+        <v>3183412</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>3601210</v>
+        <v>3598985</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3954674</v>
+        <v>3954585</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>4302053</v>
+        <v>4302653</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>465584</v>
+        <v>465182</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>395968</v>
+        <v>394828</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>448943</v>
+        <v>446909</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>638208</v>
+        <v>638334</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>413571</v>
+        <v>412342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>397783</v>
+        <v>397122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>469784</v>
+        <v>470732</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>658815</v>
+        <v>660947</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>890435</v>
+        <v>889543</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>802470</v>
+        <v>805941</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>927932</v>
+        <v>929236</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1309048</v>
+        <v>1310321</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>497604</v>
+        <v>497158</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>429957</v>
+        <v>430019</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>483533</v>
+        <v>482449</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>669356</v>
+        <v>670006</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>439155</v>
+        <v>439935</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>425165</v>
+        <v>426075</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>500648</v>
+        <v>500113</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>686768</v>
+        <v>686444</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>930239</v>
+        <v>929736</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>848322</v>
+        <v>848545</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>975501</v>
+        <v>975740</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1349270</v>
+        <v>1349219</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3104614</v>
+        <v>3107448</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3227100</v>
+        <v>3225845</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3179139</v>
+        <v>3181573</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3357439</v>
+        <v>3357962</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3197873</v>
+        <v>3198342</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3397926</v>
+        <v>3397140</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3379768</v>
+        <v>3376596</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3592523</v>
+        <v>3590644</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6318276</v>
+        <v>6317790</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6638862</v>
+        <v>6636970</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6573847</v>
+        <v>6572814</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6965328</v>
+        <v>6967190</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3152724</v>
+        <v>3154628</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3283904</v>
+        <v>3283128</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3232258</v>
+        <v>3234597</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3410929</v>
+        <v>3408211</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3246066</v>
+        <v>3246625</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3447254</v>
+        <v>3446569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>3424094</v>
+        <v>3424593</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3630137</v>
+        <v>3629593</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6387240</v>
+        <v>6388726</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6713681</v>
+        <v>6717243</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>6642185</v>
+        <v>6644884</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>7027581</v>
+        <v>7028116</v>
       </c>
     </row>
     <row r="20">
